--- a/biology/Botanique/Physalis_alkekengi/Physalis_alkekengi.xlsx
+++ b/biology/Botanique/Physalis_alkekengi/Physalis_alkekengi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alkékenge, Lanterne, Amour en cage
 Physalis alkekengi (l'Alkékenge, la Lanterne, l'Amour en cage) est une espèce de plantes dicotylédones de la famille des Solanacées. On l'appelle aussi Cerise de juif, Cerise d'hiver ou Coqueret alkékenge.
@@ -513,7 +525,9 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « alkékenge », qui est apparu dans la langue française au XIVe siècle, vient de l'ancien français « alquequange » ou « alcacange », lequel dérive de l'arabe al-kakanj. Dans son sens étroit, il désigne la lanterne chinoise, plante ornementale de l'espèce Physalis alkekengi dont les fruits sont enfermés dans une enveloppe d'un orange vif. Toutefois, dans la langue populaire, le mot peut désigner n'importe quelle plante du genre Physalis.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace à racines traçantes. La tige est glabre ou légèrement velue érigée de 30 à 60 cm de haut, anguleuse, non ramifiée. Les feuilles sont ovales acuminées, pétiolées, entières ou grossièrement dentées de 12 cm.
 Les fleurs solitaires de 1 à 2 cm de diamètre apparaissent à l'aisselle des feuilles supérieures. Corolle à cinq lobes blanc crème.
@@ -580,9 +596,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'elle contienne un peu d’alcaloïdes, cette plante n'est pas toxique. Tout au plus faut-il se méfier des fruits non mûrs qui peuvent occasionner des désagréments intestinaux. Les fruits mûrs (riches en caroténoïdes) sont comestibles et peuvent être utilisés en confitures, compotes et gelées. Elle peut rejoindre la composition du sirop de rhubarbe composé ou du sirop de chicorée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'elle contienne un peu d’alcaloïdes, cette plante n'est pas toxique. Tout au plus faut-il se méfier des fruits non mûrs qui peuvent occasionner des désagréments intestinaux. Les fruits mûrs (riches en caroténoïdes) sont comestibles et peuvent être utilisés en confitures, compotes et gelées. Elle peut rejoindre la composition du sirop de rhubarbe composé ou du sirop de chicorée.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : cyme unipare hélicoïde
@@ -655,19 +675,129 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage alimentaire
-Indigène en Europe, sa cueillette est attestée dès le Néolithique sur des sites préhistoriques comme ceux du lac de Chalain dans le Jura français[2].
+          <t>Usage alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigène en Europe, sa cueillette est attestée dès le Néolithique sur des sites préhistoriques comme ceux du lac de Chalain dans le Jura français.
 Toute la plante, sauf la racine, peut servir à préparer un vin diurétique. Les fruits peuvent être consommés en salades mais aussi transformés en confiture, gelée, marmelade ou encore être incorporés dans des tartes, clafoutis ou tout autre gâteau.
 Au Québec, la société Kruger vins et spiritueux, par sa filiale Mondia Alliance, produit un apéritif appelé « Amour en cage » (23 % d'alcool), dont la Société des alcools du Québec possède les droits de commercialisation exclusifs.
-Ceci étant dit si les fruits mûrs sont comestibles les fruits immatures s’avèrent toxiques car ils comportent de la solanine[3].
-Usage médicinal
-La tradition lui reconnaît un usage dans le traitement de la goutte et des œdèmes du fait de son caractère dépuratif (qui purifie le sang par une action diurétique).
+Ceci étant dit si les fruits mûrs sont comestibles les fruits immatures s’avèrent toxiques car ils comportent de la solanine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Physalis alkekengi et l'Homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usage médicinal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tradition lui reconnaît un usage dans le traitement de la goutte et des œdèmes du fait de son caractère dépuratif (qui purifie le sang par une action diurétique).
 On lui reconnaît aussi un effet anesthésiant et anti-inflammatoire contre les douleurs causées par les hémorroïdes lorsque le liquide du fruit broyé est appliqué directement aux parois anales.
 On utilise les baies à maturité. Fraîches ou séchées ; elles entrent dans la composition de nombreuses préparations magistrales médicinales. Il faut par contre éviter de les consommer lorsqu'elles sont vertes.
-Usage décoratif
-Elle est une composante classique des bouquets secs[4].
-Dans la littérature
-Dans Sido, le roman de Colette, le personnage éponyme aimait « ... même le coqueret alkékenge, encore qu'elle accusât sa fleur, veinée de rouge sur pulpe rose, de lui rappeler un mou de veau frais... »[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Physalis alkekengi et l'Homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Usage décoratif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est une composante classique des bouquets secs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physalis_alkekengi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Physalis alkekengi et l'Homme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans Sido, le roman de Colette, le personnage éponyme aimait « ... même le coqueret alkékenge, encore qu'elle accusât sa fleur, veinée de rouge sur pulpe rose, de lui rappeler un mou de veau frais... ».
 </t>
         </is>
       </c>
